--- a/data/income_statement/3digits/total/931_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/931_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>931-Sports activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>931-Sports activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>492783.50811</v>
@@ -959,85 +865,95 @@
         <v>722966.60265</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>914488.3359000001</v>
+        <v>914506.7634200001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1055402.42846</v>
+        <v>1055484.78698</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1288550.74066</v>
+        <v>1293518.86043</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1478586.11621</v>
+        <v>1513658.91934</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1649648.31723</v>
+        <v>1774359.44865</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2166881.43431</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2572676.1953</v>
+        <v>2579289.92884</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2815237.36363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2845329.62904</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2268052.617</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>473183.7882899999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>532926.97239</v>
+        <v>532926.9723899999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>693330.78506</v>
+        <v>693330.7850599999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>884107.26594</v>
+        <v>884109.98299</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1010132.71414</v>
+        <v>1010210.7502</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1244454.11489</v>
+        <v>1249412.62836</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1416085.67865</v>
+        <v>1445254.8403</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1543211.80426</v>
+        <v>1662050.41064</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2035080.3449</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2457819.81314</v>
+        <v>2462116.2688</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2694784.85791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2718599.40488</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2023666.288</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7477.842259999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2252.090749999999</v>
+        <v>2252.09075</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>3822.65253</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4656.003829999999</v>
+        <v>4671.7143</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>8090.830619999999</v>
@@ -1046,25 +962,30 @@
         <v>10680.5135</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>14397.96167</v>
+        <v>14441.21888</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>22939.97997</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>64754.54013</v>
+        <v>64754.54012999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>33962.54739</v>
+        <v>36144.32327</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>27783.67525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33740.38325</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>21942.391</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12121.87756</v>
@@ -1079,31 +1000,36 @@
         <v>25725.06613</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>37178.8837</v>
+        <v>37183.20615999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>33416.11227</v>
+        <v>33425.71857</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>48102.47589</v>
+        <v>53962.86016</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>83496.533</v>
+        <v>89369.05803999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>67046.54928000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>80893.83477</v>
+        <v>81029.33676999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>92668.83047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>92989.84091</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>222443.938</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2732.9537</v>
@@ -1112,7 +1038,7 @@
         <v>2856.00087</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4065.413100000001</v>
+        <v>4065.4131</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>4205.06296</v>
@@ -1121,10 +1047,10 @@
         <v>5304.78894</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11281.32434</v>
+        <v>11287.03075</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15418.20697</v>
+        <v>15424.83176</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>27085.0508</v>
@@ -1133,16 +1059,21 @@
         <v>30738.68869</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>37107.50239</v>
+        <v>37115.52524</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>39541.66826000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>39560.14794</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33468.681</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2516.00402</v>
@@ -1157,13 +1088,13 @@
         <v>3780.39517</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4672.720689999999</v>
+        <v>4672.72069</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10157.25535</v>
+        <v>10162.96176</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>12637.84904</v>
+        <v>12644.47383</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>21555.99153</v>
@@ -1172,16 +1103,21 @@
         <v>18116.57189</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>22110.49913</v>
+        <v>22118.52198</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>19124.38386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19142.86354</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>24108.208</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>215.68764</v>
@@ -1190,13 +1126,13 @@
         <v>318.44756</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>567.64932</v>
+        <v>567.6493200000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>415.26332</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>628.4010499999999</v>
+        <v>628.4010500000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>788.9360300000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>20342.06403</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8347.296</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.26204</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>75.22036999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1013.177</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>490050.55441</v>
@@ -1271,37 +1217,42 @@
         <v>718901.18955</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>910283.2729399999</v>
+        <v>910301.7004600001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1050097.63952</v>
+        <v>1050179.99804</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1277269.41632</v>
+        <v>1282231.82968</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1463167.90924</v>
+        <v>1498234.08758</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1622563.26643</v>
+        <v>1747274.39785</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2136142.74562</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2535568.69291</v>
+        <v>2542174.4036</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2775695.69537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2805769.4811</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2234583.936</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>386638.3372</v>
+        <v>386638.3372000001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>445675.07923</v>
@@ -1310,34 +1261,39 @@
         <v>460682.97708</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>572433.52198</v>
+        <v>572435.41077</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>706184.0050899999</v>
+        <v>706224.9266499999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>818448.6613299999</v>
+        <v>823882.57323</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1021473.84335</v>
+        <v>1042289.87853</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1220452.88711</v>
+        <v>1220518.96823</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1505864.39537</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1837449.30359</v>
+        <v>1841826.11148</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2213663.98454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2236478.79093</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1868673.433</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>11167.57853</v>
@@ -1346,7 +1302,7 @@
         <v>11309.04678</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7368.524729999999</v>
+        <v>7368.52473</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>10856.56871</v>
@@ -1355,10 +1311,10 @@
         <v>17487.06878</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7750.939490000001</v>
+        <v>7762.70421</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12427.13857</v>
+        <v>12576.06624</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>18850.15286</v>
@@ -1367,16 +1323,21 @@
         <v>28291.91205</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>51929.20658</v>
+        <v>51996.53348</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>46398.53163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47089.26868</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>53407.277</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>32468.95246</v>
@@ -1385,37 +1346,42 @@
         <v>36475.75212</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>38231.43158999999</v>
+        <v>38231.43159</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>69558.18562999999</v>
+        <v>69560.07442</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>59633.39031</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>62402.62173</v>
+        <v>62669.26999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>111759.80938</v>
+        <v>125499.29604</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>192937.22221</v>
+        <v>193100.22321</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>173442.56794</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>151950.64913</v>
+        <v>152607.47787</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>144475.21666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>145630.763</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>137636.696</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>342671.18654</v>
@@ -1424,37 +1390,42 @@
         <v>397445.73904</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>414004.7861300001</v>
+        <v>414004.78613</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>490944.81073</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>627566.88563</v>
+        <v>627607.8071900001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>747430.46638</v>
+        <v>752585.9652999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>894666.30873</v>
+        <v>901593.9295799999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1005115.04966</v>
+        <v>1005018.12978</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1301667.50662</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1629812.37801</v>
+        <v>1633313.57491</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2016810.61305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2037287.22992</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1667829.583</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>330.61967</v>
@@ -1484,16 +1455,21 @@
         <v>2462.40876</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3757.06987</v>
+        <v>3908.52522</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5979.623199999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6471.52933</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9799.877</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>103412.21721</v>
@@ -1505,34 +1481,39 @@
         <v>258218.21247</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>337849.75096</v>
+        <v>337866.2896899999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>343913.63443</v>
+        <v>343955.07139</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>458820.7549899999</v>
+        <v>458349.25645</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>441694.06589</v>
+        <v>455944.20905</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>402110.37932</v>
+        <v>526755.42962</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>630278.35025</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>698119.38932</v>
+        <v>700348.29212</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>562031.7108299999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>569290.6901700001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>365910.503</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>230194.41912</v>
@@ -1544,34 +1525,39 @@
         <v>335125.6414</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>446822.205</v>
+        <v>446842.23379</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>540271.7246000001</v>
+        <v>540352.75436</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>599596.80931</v>
+        <v>599908.4094199999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>733543.6649600001</v>
+        <v>744273.66856</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>522349.81153</v>
+        <v>800610.6331399999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>964575.11525</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1096409.0068</v>
+        <v>1098608.56808</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>788071.2047100001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>798210.2834099999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>529605.1459999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2.74484</v>
@@ -1604,13 +1590,18 @@
         <v>354618.6532700001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15901.24769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15963.94105</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1337.204</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>15701.94954</v>
@@ -1631,25 +1622,30 @@
         <v>32737.19788</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>36079.23405000001</v>
+        <v>36112.09303</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>41644.52246</v>
+        <v>41644.79802</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>44074.58276</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>54842.17068</v>
+        <v>54897.04884</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>50288.95339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>50331.42378999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>45690.086</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>214489.72474</v>
@@ -1661,34 +1657,39 @@
         <v>319410.21617</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>416256.60824</v>
+        <v>416276.63703</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>507817.65085</v>
+        <v>507898.68061</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>566859.3814300001</v>
+        <v>567170.9815399999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>697383.18048</v>
+        <v>708080.3251</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>480406.24586</v>
+        <v>758666.7919099999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>688207.3690599999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>686948.18285</v>
+        <v>689092.86597</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>721881.0036300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>731914.91857</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>482577.856</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-126782.20191</v>
@@ -1697,37 +1698,42 @@
         <v>-138099.00109</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-76907.42892999999</v>
+        <v>-76907.42893000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-108972.45404</v>
+        <v>-108975.9441</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-196358.09017</v>
+        <v>-196397.68297</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-140776.05432</v>
+        <v>-141559.15297</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-291849.59907</v>
+        <v>-288329.45951</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-120239.43221</v>
+        <v>-273855.20352</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-334296.765</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-398289.61748</v>
+        <v>-398260.27596</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-226039.49388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-228919.59324</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-163694.643</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>115995.13643</v>
@@ -1745,28 +1751,33 @@
         <v>119848.47952</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>94127.65264</v>
+        <v>94138.15971000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>137495.33246</v>
+        <v>139795.23868</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>124125.75507</v>
+        <v>159392.15357</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>251271.43556</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>523188.5289</v>
+        <v>524579.2871000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>407157.79973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>408827.25665</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>465837.377</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1.81825</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>412.03334</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1010.47708</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>5819.881939999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8626.335469999998</v>
+        <v>8626.33547</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>23740.3084</v>
@@ -1865,10 +1886,10 @@
         <v>13065.26045</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13838.50011</v>
+        <v>14211.33363</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12328.88542</v>
+        <v>14983.49028</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>26513.80308</v>
@@ -1877,25 +1898,30 @@
         <v>43251.65339</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>79582.85227000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>79663.35971999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>147722.267</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>140.51739</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>780.6244300000001</v>
+        <v>780.62443</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>306.83466</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>782.5043300000001</v>
+        <v>782.50433</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>116.82609</v>
@@ -1916,13 +1942,18 @@
         <v>44486.17140000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>65042.08688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>65044.32891999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>101.063</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>30626.93491</v>
@@ -1946,7 +1977,7 @@
         <v>1549.12086</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1946.38505</v>
+        <v>2220.72282</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>8603.786050000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>3115.20168</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3083.749</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>144.97627</v>
@@ -1979,13 +2015,13 @@
         <v>31224.20527</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7850.331539999999</v>
+        <v>7850.33154</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7478.78855</v>
+        <v>7478.788550000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4866.44161</v>
+        <v>4866.441610000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>40751.92247</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>12934.37556</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>10832.389</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>43485.11981</v>
@@ -2009,7 +2050,7 @@
         <v>21975.54292</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9289.225759999999</v>
+        <v>9289.225760000001</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>34569.19953</v>
@@ -2018,28 +2059,33 @@
         <v>25279.72158</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>28884.84726</v>
+        <v>28889.82733</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>54142.04042999999</v>
+        <v>55675.26736</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>37926.42448</v>
+        <v>69045.35575</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>72450.69944</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>253104.334</v>
+        <v>254495.0922</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>95493.73918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>95947.73777000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>146087.841</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>114.116</v>
@@ -2063,7 +2109,7 @@
         <v>613.4753499999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>189.58579</v>
+        <v>260.51016</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>206.732</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2185.17847</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>222.236</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.88753</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>34646.40725</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>48173.90507999999</v>
+        <v>48173.90508</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>35550.0301</v>
@@ -2135,13 +2191,13 @@
         <v>32645.28193</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>37293.23445999999</v>
+        <v>37298.76145999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>58256.95918</v>
+        <v>58650.80495000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>51393.5258</v>
+        <v>52541.12603</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>71436.35590000001</v>
@@ -2150,13 +2206,18 @@
         <v>158459.67434</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>148390.66235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>149523.37119</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>157787.832</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>40739.48618</v>
@@ -2174,28 +2235,33 @@
         <v>61106.10591000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>52396.8366</v>
+        <v>52401.5649</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>99208.85859999999</v>
+        <v>99998.30095</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>86356.06272999999</v>
+        <v>147351.88626</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>179421.89348</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>496023.04173</v>
+        <v>496144.25079</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>215831.73231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>216387.22788</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>156846.461</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2392.46807</v>
@@ -2210,10 +2276,10 @@
         <v>1702.09896</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>987.8055700000002</v>
+        <v>987.8055700000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>811.5606199999999</v>
+        <v>811.56062</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>862.2783900000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>625.9119800000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>420.86</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>111.93902</v>
@@ -2258,7 +2329,7 @@
         <v>1415.25579</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3060.1727</v>
+        <v>9605.279039999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>15643.12513</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>21972.99393</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3411.215</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>32.99033</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>13.22305</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>435.531</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>33762.28434000001</v>
@@ -2330,28 +2411,33 @@
         <v>53053.08295</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>34265.56608999999</v>
+        <v>34265.56616</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>86581.02408999999</v>
+        <v>87248.8716</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>69628.54360999998</v>
+        <v>118577.51438</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>135623.50223</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>435618.1639099999</v>
+        <v>435704.45404</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>145815.54322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>146371.03861</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>128549.127</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>60.58805</v>
@@ -2375,7 +2461,7 @@
         <v>56.08314</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>366.82354</v>
+        <v>418.21796</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>305.51534</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2165.09612</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>492.669</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>7.179270000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4372.0371</v>
@@ -2447,37 +2543,42 @@
         <v>4893.832550000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>14991.98248</v>
+        <v>14996.71071</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7495.399469999999</v>
+        <v>7616.994310000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4861.805480000001</v>
+        <v>10312.15748</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>24995.66901</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>25989.35582</v>
+        <v>26024.27475</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>45238.96401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>45238.96419000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23537.059</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>48968.39648</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>28143.83793</v>
+        <v>28143.83793000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>42503.07251999999</v>
+        <v>42503.07252</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>48142.62997</v>
@@ -2486,28 +2587,33 @@
         <v>67045.73745</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>80325.92148</v>
+        <v>80450.19941</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>88590.69305</v>
+        <v>88796.43817000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>84270.00884000001</v>
+        <v>121992.87315</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>171547.89652</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>280331.34905</v>
+        <v>280347.05565</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>350993.96828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>351126.2797899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>335629.831</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>45556.3951</v>
@@ -2522,31 +2628,36 @@
         <v>45242.74836</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>64306.03628000001</v>
+        <v>64306.03628</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>76747.27073999999</v>
+        <v>76871.54867</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>85414.177</v>
+        <v>85619.92212</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>78483.31686000001</v>
+        <v>116206.18117</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>168393.43371</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>271839.13318</v>
+        <v>271854.83978</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>347247.7081999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>347380.01971</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>332630.764</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3412.00138</v>
@@ -2555,7 +2666,7 @@
         <v>1601.34162</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4375.99894</v>
+        <v>4375.998939999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>2899.88161</v>
@@ -2576,16 +2687,21 @@
         <v>3154.46281</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>8492.21587</v>
+        <v>8492.215870000002</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>3746.26008</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2999.067</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-100494.94814</v>
@@ -2597,34 +2713,39 @@
         <v>-35923.77339</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-95724.32277000001</v>
+        <v>-95727.81283</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-204661.45401</v>
+        <v>-204701.04681</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-179371.15976</v>
+        <v>-180272.75757</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-342153.81826</v>
+        <v>-337328.95995</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-166739.74871</v>
+        <v>-383807.80936</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-433995.11944</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-651455.47936</v>
+        <v>-650172.2953</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-385707.39474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-387605.84426</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-190333.558</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>67038.10872</v>
@@ -2636,34 +2757,39 @@
         <v>31318.61082</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>38664.46638</v>
+        <v>38664.46638000001</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>34328.00728</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>39030.13711</v>
+        <v>39050.33166</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>136632.75358</v>
+        <v>136874.42054</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16390.9302</v>
+        <v>111616.23601</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>65440.8</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>82929.33868</v>
+        <v>82950.95080000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1621385.1814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1620292.41786</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>55093.228</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>42769.42099</v>
@@ -2690,7 +2816,7 @@
         <v>135.24974</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>766.05305</v>
+        <v>766.0530500000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>612.24637</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2875.49031</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>466.654</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>24268.68773</v>
@@ -2720,28 +2851,33 @@
         <v>34119.75215</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>38968.99561000001</v>
+        <v>38989.19016000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>131536.4281</v>
+        <v>131778.09506</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16255.68046</v>
+        <v>111480.98627</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>64674.74694999999</v>
+        <v>64674.74695000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>82317.09231000001</v>
+        <v>82338.70443000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1618509.69109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1617416.92755</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>54626.574</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>70155.97831000001</v>
@@ -2753,34 +2889,39 @@
         <v>29234.59051</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20808.99804</v>
+        <v>20823.07555</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>19297.40459</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>46840.02254000001</v>
+        <v>46870.65298000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>37467.81308</v>
+        <v>37531.32604</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>41911.72172</v>
+        <v>73474.26384999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>71607.21386</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>67328.21432</v>
+        <v>70886.65953</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46826.00237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>47017.39569</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>54123.232</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>584.21547</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>743.42709</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1213.34</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>58108.12759</v>
@@ -2837,28 +2983,33 @@
         <v>2424.70187</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5203.214690000001</v>
+        <v>5203.21469</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4529.466829999999</v>
+        <v>4529.46683</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>4647.625559999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8133.925770000001</v>
+        <v>8133.92577</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3642.86962</v>
+        <v>3643.05542</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>2604.31696</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>605.644</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11463.63525</v>
@@ -2870,34 +3021,39 @@
         <v>26632.86617</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>17397.48496</v>
+        <v>17411.56247</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>16809.50668</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>39396.5516</v>
+        <v>39427.18204</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>32332.42779</v>
+        <v>32395.94075</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>34493.63824</v>
+        <v>66056.18037</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>63056.55166999999</v>
+        <v>63056.55167</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>63503.17199000001</v>
+        <v>67061.4314</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43478.25832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>43669.65164</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>52304.248</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-103612.81773</v>
@@ -2909,34 +3065,39 @@
         <v>-33839.75307999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-77868.85442999999</v>
+        <v>-77886.42200000002</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-189630.85132</v>
+        <v>-189670.44412</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-187181.04519</v>
+        <v>-188093.07889</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-242988.87776</v>
+        <v>-237985.86545</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-192260.54023</v>
+        <v>-345665.8372</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-440161.5333</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-635854.355</v>
+        <v>-638108.00403</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1188851.78429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1185669.17791</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-189363.562</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2587.21086</v>
@@ -2957,7 +3118,7 @@
         <v>8690.37127</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5811.981049999999</v>
+        <v>6019.83834</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>4705.79167</v>
@@ -2966,52 +3127,60 @@
         <v>9308.832349999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>14429.9138</v>
+        <v>14591.34489</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>22419.12329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>22546.90449</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>35417.3</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-106200.02859</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-80993.56856999999</v>
+        <v>-80993.56857</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-37084.21798</v>
+        <v>-37084.21797999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-84299.39241</v>
+        <v>-84316.95997999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-195074.71998</v>
+        <v>-195114.31278</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-195871.41646</v>
+        <v>-196783.45016</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-248800.85881</v>
+        <v>-244005.70379</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-196966.3319</v>
+        <v>-350371.62887</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-449470.36565</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-650284.2688</v>
+        <v>-652699.3489199999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1166432.661</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1163122.27342</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-224780.862</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1010</v>
@@ -3041,31 +3213,34 @@
         <v>1137</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1529</v>
+        <v>1548</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1732</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1819</v>
+        <v>1884</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2070</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>